--- a/3dprinter regressie.xlsx
+++ b/3dprinter regressie.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tauomeganl-my.sharepoint.com/personal/simchavanhelvoort_tauomega_nl/Documents/Tau Omega projecten/AI voor Managers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tauomeganl-my.sharepoint.com/personal/simchavanhelvoort_tauomega_nl/Documents/Tau Omega projecten/AI voor Managers/AIVM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:40009_{9AEBDFAA-575B-4EE0-80E8-004AD5DD1F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D7F97FD-357A-4A9F-AD79-262E9CB74D14}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:40009_{9AEBDFAA-575B-4EE0-80E8-004AD5DD1F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C740686-D89A-4FB6-8A94-96183025B108}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3dprinter regressie" sheetId="2" r:id="rId1"/>
@@ -77,19 +77,19 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>=(C2-B2)^3</t>
-  </si>
-  <si>
     <t>=(C3-B3)^2</t>
   </si>
   <si>
     <t>=(C4-B4)^2</t>
   </si>
   <si>
-    <t>=(C5-B5)^5</t>
+    <t>Squared Total</t>
   </si>
   <si>
-    <t>Squared Total</t>
+    <t>=(C2-B2)^2</t>
+  </si>
+  <si>
+    <t>=(C5-B5)^2</t>
   </si>
 </sst>
 </file>
@@ -1121,10 +1121,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.1</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.1</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2372,7 +2372,7 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2403,7 +2403,7 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>2</v>
@@ -2415,14 +2415,14 @@
         <v>5</v>
       </c>
       <c r="L1" s="1">
-        <v>0.1</v>
+        <v>16</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="O1">
         <f>AVERAGE(Tabel1_2[Squared Error])</f>
-        <v>28.498000000000001</v>
+        <v>68.78</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -2434,14 +2434,14 @@
       </c>
       <c r="C2">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>6.25</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2452,20 +2452,20 @@
       </c>
       <c r="I2" s="2">
         <f>$L$1+$L$2*H2</f>
-        <v>0.1</v>
+        <v>16</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O2" s="2">
         <f>1-(SUM(Tabel1_2[Squared Error])/SUM(Tabel1_2[Squared Total]))</f>
-        <v>0.58546916546904904</v>
+        <v>-4.712891795497498E-4</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -2477,14 +2477,14 @@
       </c>
       <c r="C3">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>12.9</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>1.2099999999999993</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="I3" s="2">
         <f>$L$1+$L$2*H3</f>
-        <v>32.1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -2507,14 +2507,14 @@
       </c>
       <c r="C4">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>6.5</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>2.25</v>
+        <v>64</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2530,14 +2530,14 @@
       </c>
       <c r="C5">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>8.1</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>9.6099999999999977</v>
+        <v>121</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2553,11 +2553,11 @@
       </c>
       <c r="C6">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>4.0999999999999996</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>8.4100000000000019</v>
+        <v>81</v>
       </c>
       <c r="F6">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2573,11 +2573,11 @@
       </c>
       <c r="C7">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>19.300000000000004</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>68.890000000000072</v>
+        <v>25</v>
       </c>
       <c r="F7">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2593,11 +2593,11 @@
       </c>
       <c r="C8">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>9.7000000000000011</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>10.889999999999993</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2613,11 +2613,11 @@
       </c>
       <c r="C9">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>11.3</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>13.689999999999994</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2633,11 +2633,11 @@
       </c>
       <c r="C10">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>21.700000000000003</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>59.290000000000042</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2653,11 +2653,11 @@
       </c>
       <c r="C11">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>20.100000000000001</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>9.6100000000000083</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2673,11 +2673,11 @@
       </c>
       <c r="C12">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>29.700000000000003</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>32.49000000000003</v>
+        <v>64</v>
       </c>
       <c r="F12">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2693,11 +2693,11 @@
       </c>
       <c r="C13">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>9.7000000000000011</v>
+        <v>16</v>
       </c>
       <c r="D13">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>18.489999999999991</v>
+        <v>4</v>
       </c>
       <c r="F13">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2713,11 +2713,11 @@
       </c>
       <c r="C14">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>12.9</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>9.9999999999999291E-3</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2733,11 +2733,11 @@
       </c>
       <c r="C15">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>7.3</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>0.49000000000000027</v>
+        <v>64</v>
       </c>
       <c r="F15">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2753,11 +2753,11 @@
       </c>
       <c r="C16">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>8.1</v>
+        <v>16</v>
       </c>
       <c r="D16">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>50.41</v>
+        <v>225</v>
       </c>
       <c r="F16">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2773,11 +2773,11 @@
       </c>
       <c r="C17">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>21.700000000000003</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>8.999999999999829E-2</v>
+        <v>36</v>
       </c>
       <c r="F17">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2793,11 +2793,11 @@
       </c>
       <c r="C18">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>18.500000000000004</v>
+        <v>16</v>
       </c>
       <c r="D18">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>0.24999999999999645</v>
+        <v>9</v>
       </c>
       <c r="F18">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2813,11 +2813,11 @@
       </c>
       <c r="C19">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>20.900000000000002</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>24.010000000000019</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2833,11 +2833,11 @@
       </c>
       <c r="C20">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>26.500000000000004</v>
+        <v>16</v>
       </c>
       <c r="D20">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>30.250000000000039</v>
+        <v>25</v>
       </c>
       <c r="F20">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2853,11 +2853,11 @@
       </c>
       <c r="C21">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>23.300000000000004</v>
+        <v>16</v>
       </c>
       <c r="D21">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>453.69000000000017</v>
+        <v>196</v>
       </c>
       <c r="F21">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2873,11 +2873,11 @@
       </c>
       <c r="C22">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>12.9</v>
+        <v>16</v>
       </c>
       <c r="D22">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>0.81000000000000061</v>
+        <v>16</v>
       </c>
       <c r="F22">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2893,11 +2893,11 @@
       </c>
       <c r="C23">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>9.7000000000000011</v>
+        <v>16</v>
       </c>
       <c r="D23">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>1.6899999999999973</v>
+        <v>25</v>
       </c>
       <c r="F23">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2913,11 +2913,11 @@
       </c>
       <c r="C24">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>8.1</v>
+        <v>16</v>
       </c>
       <c r="D24">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>0.81000000000000061</v>
+        <v>49</v>
       </c>
       <c r="F24">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2933,11 +2933,11 @@
       </c>
       <c r="C25">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>15.3</v>
+        <v>16</v>
       </c>
       <c r="D25">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>53.290000000000013</v>
+        <v>64</v>
       </c>
       <c r="F25">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2953,11 +2953,11 @@
       </c>
       <c r="C26">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>6.5</v>
+        <v>16</v>
       </c>
       <c r="D26">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>6.25</v>
+        <v>144</v>
       </c>
       <c r="F26">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2973,11 +2973,11 @@
       </c>
       <c r="C27">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>8.9</v>
+        <v>16</v>
       </c>
       <c r="D27">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>50.41</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2993,11 +2993,11 @@
       </c>
       <c r="C28">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>9.7000000000000011</v>
+        <v>16</v>
       </c>
       <c r="D28">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>5.2899999999999947</v>
+        <v>16</v>
       </c>
       <c r="F28">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3013,11 +3013,11 @@
       </c>
       <c r="C29">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="D29">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>12.25</v>
+        <v>4</v>
       </c>
       <c r="F29">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3033,11 +3033,11 @@
       </c>
       <c r="C30">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>27.300000000000004</v>
+        <v>16</v>
       </c>
       <c r="D30">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>2.8899999999999855</v>
+        <v>169</v>
       </c>
       <c r="F30">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3053,11 +3053,11 @@
       </c>
       <c r="C31">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>11.3</v>
+        <v>16</v>
       </c>
       <c r="D31">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>13.689999999999994</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3073,11 +3073,11 @@
       </c>
       <c r="C32">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>21.700000000000003</v>
+        <v>16</v>
       </c>
       <c r="D32">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>5.2899999999999867</v>
+        <v>64</v>
       </c>
       <c r="F32">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3093,11 +3093,11 @@
       </c>
       <c r="C33">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>15.3</v>
+        <v>16</v>
       </c>
       <c r="D33">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>7.2899999999999965</v>
+        <v>4</v>
       </c>
       <c r="F33">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3113,11 +3113,11 @@
       </c>
       <c r="C34">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="D34">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="F34">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3133,11 +3133,11 @@
       </c>
       <c r="C35">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>7.3</v>
+        <v>16</v>
       </c>
       <c r="D35">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>1.6899999999999995</v>
+        <v>100</v>
       </c>
       <c r="F35">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3153,11 +3153,11 @@
       </c>
       <c r="C36">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="D36">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>12.25</v>
+        <v>81</v>
       </c>
       <c r="F36">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3173,11 +3173,11 @@
       </c>
       <c r="C37">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>26.500000000000004</v>
+        <v>16</v>
       </c>
       <c r="D37">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>2.2499999999999893</v>
+        <v>144</v>
       </c>
       <c r="F37">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3193,11 +3193,11 @@
       </c>
       <c r="C38">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>19.300000000000004</v>
+        <v>16</v>
       </c>
       <c r="D38">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>1.690000000000011</v>
+        <v>4</v>
       </c>
       <c r="F38">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3213,11 +3213,11 @@
       </c>
       <c r="C39">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>20.900000000000002</v>
+        <v>16</v>
       </c>
       <c r="D39">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>9.9999999999995735E-3</v>
+        <v>25</v>
       </c>
       <c r="F39">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3233,11 +3233,11 @@
       </c>
       <c r="C40">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>17.700000000000003</v>
+        <v>16</v>
       </c>
       <c r="D40">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>28.089999999999971</v>
+        <v>49</v>
       </c>
       <c r="F40">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3253,11 +3253,11 @@
       </c>
       <c r="C41">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>3.3000000000000003</v>
+        <v>16</v>
       </c>
       <c r="D41">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>13.689999999999998</v>
+        <v>81</v>
       </c>
       <c r="F41">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3273,11 +3273,11 @@
       </c>
       <c r="C42">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>28.1</v>
+        <v>16</v>
       </c>
       <c r="D42">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>24.009999999999987</v>
+        <v>289</v>
       </c>
       <c r="F42">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3293,11 +3293,11 @@
       </c>
       <c r="C43">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>27.300000000000004</v>
+        <v>16</v>
       </c>
       <c r="D43">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>13.689999999999969</v>
+        <v>225</v>
       </c>
       <c r="F43">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3313,11 +3313,11 @@
       </c>
       <c r="C44">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>22.500000000000004</v>
+        <v>16</v>
       </c>
       <c r="D44">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>0.25000000000000355</v>
+        <v>36</v>
       </c>
       <c r="F44">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3333,11 +3333,11 @@
       </c>
       <c r="C45">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>22.500000000000004</v>
+        <v>16</v>
       </c>
       <c r="D45">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>42.250000000000043</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3353,11 +3353,11 @@
       </c>
       <c r="C46">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16.900000000000002</v>
+        <v>16</v>
       </c>
       <c r="D46">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>34.810000000000024</v>
+        <v>25</v>
       </c>
       <c r="F46">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3373,11 +3373,11 @@
       </c>
       <c r="C47">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>22.500000000000004</v>
+        <v>16</v>
       </c>
       <c r="D47">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>20.249999999999968</v>
+        <v>121</v>
       </c>
       <c r="F47">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3393,11 +3393,11 @@
       </c>
       <c r="C48">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>11.3</v>
+        <v>16</v>
       </c>
       <c r="D48">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>44.889999999999993</v>
+        <v>4</v>
       </c>
       <c r="F48">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3413,11 +3413,11 @@
       </c>
       <c r="C49">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>24.1</v>
+        <v>16</v>
       </c>
       <c r="D49">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>62.409999999999975</v>
+        <v>256</v>
       </c>
       <c r="F49">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3433,11 +3433,11 @@
       </c>
       <c r="C50">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>23.300000000000004</v>
+        <v>16</v>
       </c>
       <c r="D50">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>75.689999999999927</v>
+        <v>256</v>
       </c>
       <c r="F50">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3453,11 +3453,11 @@
       </c>
       <c r="C51">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>21.700000000000003</v>
+        <v>16</v>
       </c>
       <c r="D51">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>86.489999999999952</v>
+        <v>225</v>
       </c>
       <c r="F51">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3465,7 +3465,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Co8Uhz/qw9wILv9aowVjTTy1fbdVCspVj6ev4APf6nF1R6TrXZ92Jauuep26E0Fi15N+Rz9t/92wiJfw9O3ZhQ==" saltValue="7IkbWXiMLqCK0S9EQn84aA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9V5NccJFJ1b1BulIEjoKWhNnj0cqpfDvwGyhewy76t9+uWayIudfLYReoqwi3IzFJ2ZsMibjiWR+6pa/Loj9Hg==" saltValue="xjZf5UkKz/hcZR5QolO7yw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="O1">
     <cfRule type="colorScale" priority="2">

--- a/3dprinter regressie.xlsx
+++ b/3dprinter regressie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tauomeganl-my.sharepoint.com/personal/simchavanhelvoort_tauomega_nl/Documents/Tau Omega projecten/AI voor Managers/AIVM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:40009_{9AEBDFAA-575B-4EE0-80E8-004AD5DD1F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C740686-D89A-4FB6-8A94-96183025B108}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:40009_{9AEBDFAA-575B-4EE0-80E8-004AD5DD1F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2F62E9D-E274-430F-BF40-81F532E0851D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3dprinter regressie" sheetId="2" r:id="rId1"/>
@@ -1121,10 +1121,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2371,8 +2371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2415,14 +2415,14 @@
         <v>5</v>
       </c>
       <c r="L1" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="O1">
         <f>AVERAGE(Tabel1_2[Squared Error])</f>
-        <v>68.78</v>
+        <v>269.82</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -2434,11 +2434,11 @@
       </c>
       <c r="C2">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>14</v>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="I2" s="2">
         <f>$L$1+$L$2*H2</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>4</v>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="O2" s="2">
         <f>1-(SUM(Tabel1_2[Squared Error])/SUM(Tabel1_2[Squared Total]))</f>
-        <v>-4.712891795497498E-4</v>
+        <v>-2.9247915563597862</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -2477,11 +2477,11 @@
       </c>
       <c r="C3">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="I3" s="2">
         <f>$L$1+$L$2*H3</f>
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -2507,11 +2507,11 @@
       </c>
       <c r="C4">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>12</v>
@@ -2530,11 +2530,11 @@
       </c>
       <c r="C5">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>15</v>
@@ -2553,11 +2553,11 @@
       </c>
       <c r="C6">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2573,11 +2573,11 @@
       </c>
       <c r="C7">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="F7">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2593,11 +2593,11 @@
       </c>
       <c r="C8">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="F8">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2613,11 +2613,11 @@
       </c>
       <c r="C9">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="F9">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2633,11 +2633,11 @@
       </c>
       <c r="C10">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="F10">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2653,11 +2653,11 @@
       </c>
       <c r="C11">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="F11">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2673,11 +2673,11 @@
       </c>
       <c r="C12">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>64</v>
+        <v>484</v>
       </c>
       <c r="F12">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2693,11 +2693,11 @@
       </c>
       <c r="C13">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="F13">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2713,11 +2713,11 @@
       </c>
       <c r="C14">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="F14">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2733,11 +2733,11 @@
       </c>
       <c r="C15">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="F15">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2753,11 +2753,11 @@
       </c>
       <c r="C16">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>225</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2773,11 +2773,11 @@
       </c>
       <c r="C17">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>36</v>
+        <v>400</v>
       </c>
       <c r="F17">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2793,11 +2793,11 @@
       </c>
       <c r="C18">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="F18">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2813,11 +2813,11 @@
       </c>
       <c r="C19">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="F19">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2833,11 +2833,11 @@
       </c>
       <c r="C20">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>25</v>
+        <v>361</v>
       </c>
       <c r="F20">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2853,11 +2853,11 @@
       </c>
       <c r="C21">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2873,11 +2873,11 @@
       </c>
       <c r="C22">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="F22">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2893,11 +2893,11 @@
       </c>
       <c r="C23">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="F23">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="C24">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
@@ -2933,11 +2933,11 @@
       </c>
       <c r="C25">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="F25">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2953,11 +2953,11 @@
       </c>
       <c r="C26">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="F26">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2973,11 +2973,11 @@
       </c>
       <c r="C27">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="F27">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -2993,11 +2993,11 @@
       </c>
       <c r="C28">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="F28">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3013,11 +3013,11 @@
       </c>
       <c r="C29">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>4</v>
+        <v>256</v>
       </c>
       <c r="F29">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3033,11 +3033,11 @@
       </c>
       <c r="C30">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D30">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>169</v>
+        <v>729</v>
       </c>
       <c r="F30">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3053,11 +3053,11 @@
       </c>
       <c r="C31">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="F31">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3073,11 +3073,11 @@
       </c>
       <c r="C32">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>64</v>
+        <v>484</v>
       </c>
       <c r="F32">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3093,11 +3093,11 @@
       </c>
       <c r="C33">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>4</v>
+        <v>256</v>
       </c>
       <c r="F33">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3113,11 +3113,11 @@
       </c>
       <c r="C34">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D34">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="F34">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3133,11 +3133,11 @@
       </c>
       <c r="C35">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
         <v>16</v>
-      </c>
-      <c r="D35">
-        <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>100</v>
       </c>
       <c r="F35">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3153,11 +3153,11 @@
       </c>
       <c r="C36">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="F36">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3173,11 +3173,11 @@
       </c>
       <c r="C37">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>144</v>
+        <v>676</v>
       </c>
       <c r="F37">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3193,11 +3193,11 @@
       </c>
       <c r="C38">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D38">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>4</v>
+        <v>256</v>
       </c>
       <c r="F38">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3213,11 +3213,11 @@
       </c>
       <c r="C39">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>25</v>
+        <v>361</v>
       </c>
       <c r="F39">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3233,11 +3233,11 @@
       </c>
       <c r="C40">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D40">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>49</v>
+        <v>441</v>
       </c>
       <c r="F40">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3253,11 +3253,11 @@
       </c>
       <c r="C41">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="F41">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3273,11 +3273,11 @@
       </c>
       <c r="C42">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D42">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>289</v>
+        <v>961</v>
       </c>
       <c r="F42">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3293,11 +3293,11 @@
       </c>
       <c r="C43">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D43">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>225</v>
+        <v>841</v>
       </c>
       <c r="F43">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3313,11 +3313,11 @@
       </c>
       <c r="C44">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D44">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>36</v>
+        <v>400</v>
       </c>
       <c r="F44">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3333,11 +3333,11 @@
       </c>
       <c r="C45">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="F45">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3353,11 +3353,11 @@
       </c>
       <c r="C46">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D46">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="F46">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3373,11 +3373,11 @@
       </c>
       <c r="C47">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D47">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>121</v>
+        <v>625</v>
       </c>
       <c r="F47">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3393,11 +3393,11 @@
       </c>
       <c r="C48">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D48">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>4</v>
+        <v>256</v>
       </c>
       <c r="F48">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3413,11 +3413,11 @@
       </c>
       <c r="C49">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D49">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>256</v>
+        <v>900</v>
       </c>
       <c r="F49">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3433,11 +3433,11 @@
       </c>
       <c r="C50">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D50">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>256</v>
+        <v>900</v>
       </c>
       <c r="F50">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
@@ -3453,11 +3453,11 @@
       </c>
       <c r="C51">
         <f>Tabel1_2[[#This Row],[tension_strenght]]*$L$2+$L$1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D51">
         <f>(Tabel1_2[[#This Row],[elongation]]-Tabel1_2[[#This Row],[Voorspelling]])^2</f>
-        <v>225</v>
+        <v>841</v>
       </c>
       <c r="F51">
         <f>(Tabel1_2[[#This Row],[elongation]]-AVERAGE(Tabel1_2[elongation]))^2</f>
